--- a/biology/Botanique/Geoffrey_Clough_Ainsworth/Geoffrey_Clough_Ainsworth.xlsx
+++ b/biology/Botanique/Geoffrey_Clough_Ainsworth/Geoffrey_Clough_Ainsworth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geoffrey Clough Ainsworth est un mycologue et un historien des sciences britannique, né le 9 octobre 1905 à Birmingham et mort le 25 octobre 1998 à Derby. Ses  multiples écrits ont fait connaître la mycologie et ses applications pharmaceutiques à un vaste public.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils unique du révérend Percy Clough Ainsworth. Il fait ses études à Bath avant d’entrer à l’University College de Nottingham. En 1929, il est diplômé en pharmacie et commence alors à travailler sur la pathologie végétale à la station expérimentale de Rothamsted puis, à partir de 1931 et jusqu’en 1939, au centre de recherche de Cheshunt. Il soutient sa thèse à l’université de Londres en 1934 et fait paraître, en 1937, son premier livre, intitulé The Plant Diseases of Great Britain[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils unique du révérend Percy Clough Ainsworth. Il fait ses études à Bath avant d’entrer à l’University College de Nottingham. En 1929, il est diplômé en pharmacie et commence alors à travailler sur la pathologie végétale à la station expérimentale de Rothamsted puis, à partir de 1931 et jusqu’en 1939, au centre de recherche de Cheshunt. Il soutient sa thèse à l’université de Londres en 1934 et fait paraître, en 1937, son premier livre, intitulé The Plant Diseases of Great Britain.
 Ainsworth se rapproche du département de mycologie des Jardins botaniques royaux de Kew. Il devient mycologue assistant en 1939. Avec Guy Richard Bisby (1889-1958), il s’attelle au Dictionary of the Fungi qui commence à paraître en 1943 et qui connaîtra de nombreuses rééditions. Le nombre de champignons estimés par Bisby et Ainsworth passe de 100 000 en 1943 à 260 000 en 1943.
 Jugeant son salaire trop modeste à Kew, Ainsworth prend la direction du département de mycologie des laboratoires de recherche physiologique Wellcome à Beckenham, dans le Kent. Il travaille alors sur les antibiotiques. À partir de 1947, il travaille à l'École d'hygiène et de médecine tropicale de Londres. Ses espoirs de remplacer le directeur de l’école sont déçus parce qu’il n’est pas médecin.
 De 1948 à 1957, il donne des cours à l’université d'Exeter et fait paraître plusieurs livres : avec Kathleen Sampson The British Smut Fungi (1950) et Medical Mycology (1952). Ainsworth commence à s’intéresser à l’histoire des sciences et, avec Phyllis Margaret Stockdale (1927-1989), travaille spécialement sur la mycologie vétérinaire et médicale. Il organise le premier cours de mycologie vétérinaire pour les écoles vétérinaires de Grande-Bretagne. Il fonde en 1954 l'International Society for Human and Animal Mycology dont il assure le secrétariat jusqu’en 1966.
